--- a/medicine/Pharmacie/Clévidipine/Clévidipine.xlsx
+++ b/medicine/Pharmacie/Clévidipine/Clévidipine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cl%C3%A9vidipine</t>
+          <t>Clévidipine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La clévidipine est un inhibiteur calcique de type dihydropyridine, utilisé comme médicament intraveineux dans les poussées hypertensives.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cl%C3%A9vidipine</t>
+          <t>Clévidipine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un vasodilatateur artériel avec une demi-vie de quelques minutes[3]. Il n'a pas d'action direct sur le cœur ou sur les veines[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un vasodilatateur artériel avec une demi-vie de quelques minutes. Il n'a pas d'action direct sur le cœur ou sur les veines.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cl%C3%A9vidipine</t>
+          <t>Clévidipine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il peut être utilisé dans les poussées d'hypertension artérielle, même en cas d'insuffisance cardiaque aiguë[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il peut être utilisé dans les poussées d'hypertension artérielle, même en cas d'insuffisance cardiaque aiguë.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cl%C3%A9vidipine</t>
+          <t>Clévidipine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il existe une tachycardie réactionnelle, pouvant se compliquer d'une fibrillation atriale. Des cas d'insuffisance rénale ont été décrits[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe une tachycardie réactionnelle, pouvant se compliquer d'une fibrillation atriale. Des cas d'insuffisance rénale ont été décrits.
 </t>
         </is>
       </c>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cl%C3%A9vidipine</t>
+          <t>Clévidipine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,9 +623,11 @@
           <t>Stéréochimie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Clévidipine contient un stéréocentre et se compose donc de deux énantiomères. C'est un racémate, c'est-à-dire le mélange 1:1 des formes ( R ) et ( S )[7]:
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Clévidipine contient un stéréocentre et se compose donc de deux énantiomères. C'est un racémate, c'est-à-dire le mélange 1:1 des formes ( R ) et ( S ):
 </t>
         </is>
       </c>
